--- a/docs/Attendance sheet.xlsx
+++ b/docs/Attendance sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bri-m\Desktop\FEUP\4ºAno\ES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C439FE5-152E-478E-AE32-0CE923D91CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924309CE-85E1-4A39-B905-23DBAF14A25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D9121494-B157-4641-A0A6-72271BD97EC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="31">
   <si>
     <t xml:space="preserve">Alexandre Araújo Pires Mourão </t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>----</t>
+  </si>
+  <si>
+    <t>Date 04/05</t>
   </si>
 </sst>
 </file>
@@ -274,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -296,12 +299,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -314,12 +332,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -332,13 +344,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -814,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CE308D-FD7A-4FE3-ACC4-10BBE772A07E}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -834,15 +840,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -854,13 +860,13 @@
       <c r="P1" s="4"/>
     </row>
     <row r="2" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -872,13 +878,13 @@
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
@@ -890,11 +896,11 @@
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="5"/>
@@ -906,11 +912,11 @@
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="5"/>
@@ -922,11 +928,11 @@
       <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="5"/>
@@ -938,82 +944,82 @@
       <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="14" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="14" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="14" t="s">
         <v>22</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="P7" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="12"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="12"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="15"/>
       <c r="L8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="12"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="15"/>
       <c r="O8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="18"/>
+      <c r="P8" s="17"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -1197,10 +1203,12 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="M13" s="3"/>
-      <c r="N13" s="23" t="s">
+      <c r="N13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="O13" s="9"/>
+      <c r="O13" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -1394,43 +1402,73 @@
       <c r="P18" s="3"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="14" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="16" t="s">
         <v>11</v>
       </c>
+      <c r="H19" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="12"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="18"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="17"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="17"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="9"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="7" t="s">
         <v>15</v>
@@ -1439,6 +1477,18 @@
         <v>0.69236111111111109</v>
       </c>
       <c r="G21" s="3"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="12">
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
@@ -1458,6 +1508,20 @@
         <v>0.69236111111111109</v>
       </c>
       <c r="G22" s="10"/>
+      <c r="H22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="J22" s="10"/>
+      <c r="K22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="M22" s="10"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
@@ -1470,13 +1534,25 @@
         <v>0.64652777777777781</v>
       </c>
       <c r="D23" s="10"/>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G23" s="10"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="10"/>
+      <c r="K23" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="M23" s="10"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
@@ -1496,21 +1572,49 @@
         <v>0.69236111111111109</v>
       </c>
       <c r="G24" s="10"/>
+      <c r="H24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="J24" s="10"/>
+      <c r="K24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="9">
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="M24" s="10"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="9"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="G25" s="3"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" s="12">
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="M25" s="3"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
@@ -1530,6 +1634,20 @@
         <v>0.69236111111111109</v>
       </c>
       <c r="G26" s="10"/>
+      <c r="H26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="J26" s="10"/>
+      <c r="K26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="M26" s="10"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
@@ -1549,6 +1667,20 @@
         <v>0.69236111111111109</v>
       </c>
       <c r="G27" s="10"/>
+      <c r="H27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="9">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="J27" s="10"/>
+      <c r="K27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="9">
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="M27" s="10"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
@@ -1561,13 +1693,25 @@
         <v>0.64652777777777781</v>
       </c>
       <c r="D28" s="10"/>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G28" s="10"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="10"/>
+      <c r="K28" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" s="12">
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="M28" s="10"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
@@ -1587,6 +1731,20 @@
         <v>0.69236111111111109</v>
       </c>
       <c r="G29" s="10"/>
+      <c r="H29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0.65763888888888888</v>
+      </c>
+      <c r="J29" s="10"/>
+      <c r="K29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="M29" s="10"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
@@ -1606,26 +1764,44 @@
         <v>0.69236111111111109</v>
       </c>
       <c r="G30" s="10"/>
+      <c r="H30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="9">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="J30" s="10"/>
+      <c r="K30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" s="9">
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="M30" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="21">
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A3:E6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="J19:J20"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="J7:J8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="K7:K8"/>
     <mergeCell ref="N7:N8"/>
-    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="M19:M20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
